--- a/ANVNSimultaneous_3n_root_bank_thresh1.xlsx
+++ b/ANVNSimultaneous_3n_root_bank_thresh1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,10 @@
         <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>34.27</v>
+        <v>29.22</v>
       </c>
       <c r="D2" t="n">
-        <v>2114.15087890625</v>
+        <v>1952.705322265625</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>21.97</v>
+        <v>25.08</v>
       </c>
       <c r="D3" t="n">
-        <v>1381.00634765625</v>
+        <v>2029.086303710938</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>32.75</v>
+        <v>30.64</v>
       </c>
       <c r="D4" t="n">
-        <v>2211.38818359375</v>
+        <v>1730.767822265625</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>24.12</v>
+        <v>28.92</v>
       </c>
       <c r="D5" t="n">
-        <v>1759.504638671875</v>
+        <v>1630.6162109375</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>24.67</v>
+        <v>26.73</v>
       </c>
       <c r="D6" t="n">
-        <v>1525.049926757812</v>
+        <v>1660.810180664062</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>25.4</v>
+        <v>24.82</v>
       </c>
       <c r="D7" t="n">
-        <v>1367.681274414062</v>
+        <v>1231.253173828125</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>14.97</v>
+        <v>19.38</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.558959960938</v>
+        <v>1126.4140625</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>19.95</v>
+        <v>23.45</v>
       </c>
       <c r="D9" t="n">
-        <v>914.369384765625</v>
+        <v>917.17822265625</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68</v>
+        <v>21.28</v>
       </c>
       <c r="D10" t="n">
-        <v>609.3921508789062</v>
+        <v>625.184326171875</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>24.44</v>
+        <v>16.86</v>
       </c>
       <c r="D11" t="n">
-        <v>307.6009826660156</v>
+        <v>295.038818359375</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>250</v>
       </c>
       <c r="C12" t="n">
-        <v>30.11</v>
+        <v>29.04</v>
       </c>
       <c r="D12" t="n">
-        <v>2345.3125</v>
+        <v>2183.587890625</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>225</v>
       </c>
       <c r="C13" t="n">
-        <v>25.77</v>
+        <v>28.72</v>
       </c>
       <c r="D13" t="n">
-        <v>2103.5791015625</v>
+        <v>2092.385986328125</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>22.71</v>
+        <v>31.35</v>
       </c>
       <c r="D14" t="n">
-        <v>1767.814086914062</v>
+        <v>2060.705078125</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>175</v>
       </c>
       <c r="C15" t="n">
-        <v>30.39</v>
+        <v>29.12</v>
       </c>
       <c r="D15" t="n">
-        <v>1857.809204101562</v>
+        <v>1292.39794921875</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>27.09</v>
+        <v>29.26</v>
       </c>
       <c r="D16" t="n">
-        <v>1453.900268554688</v>
+        <v>1669.581909179688</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>25.28</v>
+        <v>22.88</v>
       </c>
       <c r="D17" t="n">
-        <v>1361.035034179688</v>
+        <v>1437.33642578125</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>17.93</v>
+        <v>20.22</v>
       </c>
       <c r="D18" t="n">
-        <v>1059.585083007812</v>
+        <v>1086.842163085938</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>75</v>
       </c>
       <c r="C19" t="n">
-        <v>25.95</v>
+        <v>19.32</v>
       </c>
       <c r="D19" t="n">
-        <v>841.0936279296875</v>
+        <v>873.9382934570312</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>11.41</v>
+        <v>21.94</v>
       </c>
       <c r="D20" t="n">
-        <v>529.7669677734375</v>
+        <v>599.620849609375</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>18.38</v>
+        <v>15.82</v>
       </c>
       <c r="D21" t="n">
-        <v>331.0757751464844</v>
+        <v>320.4915771484375</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>28.97</v>
+        <v>33.24</v>
       </c>
       <c r="D22" t="n">
-        <v>2088.2744140625</v>
+        <v>2322.181884765625</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>225</v>
       </c>
       <c r="C23" t="n">
-        <v>26.18</v>
+        <v>21.24</v>
       </c>
       <c r="D23" t="n">
-        <v>1828.379638671875</v>
+        <v>1991.050170898438</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>27.77</v>
+        <v>31.37</v>
       </c>
       <c r="D24" t="n">
-        <v>1951.084228515625</v>
+        <v>2002.934814453125</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>175</v>
       </c>
       <c r="C25" t="n">
-        <v>29.88</v>
+        <v>29.38</v>
       </c>
       <c r="D25" t="n">
-        <v>1747.730590820312</v>
+        <v>1533.47509765625</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>22.1</v>
       </c>
       <c r="D26" t="n">
-        <v>1565.67626953125</v>
+        <v>1629.970825195312</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>30.04</v>
+        <v>13.68</v>
       </c>
       <c r="D27" t="n">
-        <v>1367.235473632812</v>
+        <v>1200.3740234375</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>25.65</v>
+        <v>22.25</v>
       </c>
       <c r="D28" t="n">
-        <v>1125.48095703125</v>
+        <v>1124.882690429688</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="n">
-        <v>24.87</v>
+        <v>22.3</v>
       </c>
       <c r="D29" t="n">
-        <v>820.6994018554688</v>
+        <v>893.4230346679688</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>18.86</v>
+        <v>17.51</v>
       </c>
       <c r="D30" t="n">
-        <v>654.991455078125</v>
+        <v>663.10302734375</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>12.27</v>
+        <v>14.33</v>
       </c>
       <c r="D31" t="n">
-        <v>276.5415649414062</v>
+        <v>312.34814453125</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>30.32</v>
+        <v>33.36</v>
       </c>
       <c r="D32" t="n">
-        <v>2114.31640625</v>
+        <v>1901.97509765625</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>225</v>
       </c>
       <c r="C33" t="n">
-        <v>30.65</v>
+        <v>25.46</v>
       </c>
       <c r="D33" t="n">
-        <v>2110.1337890625</v>
+        <v>2018.13525390625</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>25.54</v>
+        <v>24.09</v>
       </c>
       <c r="D34" t="n">
-        <v>1617.299682617188</v>
+        <v>1726.630737304688</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>175</v>
       </c>
       <c r="C35" t="n">
-        <v>24.25</v>
+        <v>24.35</v>
       </c>
       <c r="D35" t="n">
-        <v>1470.377685546875</v>
+        <v>1209.507202148438</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>28.05</v>
+        <v>24.73</v>
       </c>
       <c r="D36" t="n">
-        <v>1356.273803710938</v>
+        <v>1426.239990234375</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>125</v>
       </c>
       <c r="C37" t="n">
-        <v>30.2</v>
+        <v>30.87</v>
       </c>
       <c r="D37" t="n">
-        <v>1309.885986328125</v>
+        <v>1512.977783203125</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>100</v>
       </c>
       <c r="C38" t="n">
-        <v>25.47</v>
+        <v>23.9</v>
       </c>
       <c r="D38" t="n">
-        <v>1047.671508789062</v>
+        <v>1134.281982421875</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>19.61</v>
+        <v>24.76</v>
       </c>
       <c r="D39" t="n">
-        <v>789.0687866210938</v>
+        <v>1055.656372070312</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>26.42</v>
+        <v>20.55</v>
       </c>
       <c r="D40" t="n">
-        <v>625.864501953125</v>
+        <v>528.1173706054688</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>16.86</v>
+        <v>22.75</v>
       </c>
       <c r="D41" t="n">
-        <v>296.9773559570312</v>
+        <v>276.2801818847656</v>
       </c>
     </row>
     <row r="42">
@@ -1023,10 +1023,10 @@
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>38.01</v>
+        <v>33.67</v>
       </c>
       <c r="D42" t="n">
-        <v>2550.364501953125</v>
+        <v>2207.3505859375</v>
       </c>
     </row>
     <row r="43">
@@ -1037,10 +1037,10 @@
         <v>225</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7</v>
+        <v>29.03</v>
       </c>
       <c r="D43" t="n">
-        <v>1830.795288085938</v>
+        <v>2084.588623046875</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         <v>200</v>
       </c>
       <c r="C44" t="n">
-        <v>22.93</v>
+        <v>26.93</v>
       </c>
       <c r="D44" t="n">
-        <v>2019.619140625</v>
+        <v>1838.364501953125</v>
       </c>
     </row>
     <row r="45">
@@ -1065,10 +1065,10 @@
         <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>18.92</v>
       </c>
       <c r="D45" t="n">
-        <v>1851.04150390625</v>
+        <v>1514.214477539062</v>
       </c>
     </row>
     <row r="46">
@@ -1079,10 +1079,10 @@
         <v>150</v>
       </c>
       <c r="C46" t="n">
-        <v>32.01</v>
+        <v>30.04</v>
       </c>
       <c r="D46" t="n">
-        <v>1432.200317382812</v>
+        <v>1347.041015625</v>
       </c>
     </row>
     <row r="47">
@@ -1093,10 +1093,10 @@
         <v>125</v>
       </c>
       <c r="C47" t="n">
-        <v>16.18</v>
+        <v>19.48</v>
       </c>
       <c r="D47" t="n">
-        <v>1322.591796875</v>
+        <v>1260.989135742188</v>
       </c>
     </row>
     <row r="48">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>25.15</v>
       </c>
       <c r="D48" t="n">
-        <v>1203.93701171875</v>
+        <v>1288.213500976562</v>
       </c>
     </row>
     <row r="49">
@@ -1121,10 +1121,10 @@
         <v>75</v>
       </c>
       <c r="C49" t="n">
-        <v>19.89</v>
+        <v>16.18</v>
       </c>
       <c r="D49" t="n">
-        <v>828.724609375</v>
+        <v>912.2179565429688</v>
       </c>
     </row>
     <row r="50">
@@ -1135,10 +1135,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>23.33</v>
+        <v>23.1</v>
       </c>
       <c r="D50" t="n">
-        <v>644.4928588867188</v>
+        <v>648.8211669921875</v>
       </c>
     </row>
     <row r="51">
@@ -1149,10 +1149,10 @@
         <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>18.05</v>
+        <v>19.32</v>
       </c>
       <c r="D51" t="n">
-        <v>298.6490173339844</v>
+        <v>284.5036315917969</v>
       </c>
     </row>
     <row r="52">
@@ -1163,10 +1163,10 @@
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>35.39</v>
+        <v>30.93</v>
       </c>
       <c r="D52" t="n">
-        <v>2344.544677734375</v>
+        <v>2468.2548828125</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>225</v>
       </c>
       <c r="C53" t="n">
-        <v>20.91</v>
+        <v>31.46</v>
       </c>
       <c r="D53" t="n">
-        <v>1753.7451171875</v>
+        <v>2114.018798828125</v>
       </c>
     </row>
     <row r="54">
@@ -1191,10 +1191,10 @@
         <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>25.97</v>
+        <v>27.93</v>
       </c>
       <c r="D54" t="n">
-        <v>1945.042358398438</v>
+        <v>2014.6689453125</v>
       </c>
     </row>
     <row r="55">
@@ -1205,10 +1205,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>25.4</v>
+        <v>26.06</v>
       </c>
       <c r="D55" t="n">
-        <v>1763.748168945312</v>
+        <v>1405.1298828125</v>
       </c>
     </row>
     <row r="56">
@@ -1219,10 +1219,10 @@
         <v>150</v>
       </c>
       <c r="C56" t="n">
-        <v>17.12</v>
+        <v>24.18</v>
       </c>
       <c r="D56" t="n">
-        <v>1642.484130859375</v>
+        <v>1583.389038085938</v>
       </c>
     </row>
     <row r="57">
@@ -1233,10 +1233,10 @@
         <v>125</v>
       </c>
       <c r="C57" t="n">
-        <v>26.59</v>
+        <v>20.15</v>
       </c>
       <c r="D57" t="n">
-        <v>1354.639038085938</v>
+        <v>1529.623779296875</v>
       </c>
     </row>
     <row r="58">
@@ -1247,10 +1247,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="n">
-        <v>28.71</v>
+        <v>21.5</v>
       </c>
       <c r="D58" t="n">
-        <v>1223.181396484375</v>
+        <v>1018.359008789062</v>
       </c>
     </row>
     <row r="59">
@@ -1261,10 +1261,10 @@
         <v>75</v>
       </c>
       <c r="C59" t="n">
-        <v>17.81</v>
+        <v>24.67</v>
       </c>
       <c r="D59" t="n">
-        <v>860.2730102539062</v>
+        <v>972.8478393554688</v>
       </c>
     </row>
     <row r="60">
@@ -1275,10 +1275,10 @@
         <v>50</v>
       </c>
       <c r="C60" t="n">
-        <v>19.26</v>
+        <v>18.87</v>
       </c>
       <c r="D60" t="n">
-        <v>664.289794921875</v>
+        <v>624.121826171875</v>
       </c>
     </row>
     <row r="61">
@@ -1289,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>18.98</v>
+        <v>14.72</v>
       </c>
       <c r="D61" t="n">
-        <v>289.2510681152344</v>
+        <v>290.1313781738281</v>
       </c>
     </row>
     <row r="62">
@@ -1303,10 +1303,10 @@
         <v>250</v>
       </c>
       <c r="C62" t="n">
-        <v>25.83</v>
+        <v>25.49</v>
       </c>
       <c r="D62" t="n">
-        <v>1946.378784179688</v>
+        <v>2083.475830078125</v>
       </c>
     </row>
     <row r="63">
@@ -1317,10 +1317,10 @@
         <v>225</v>
       </c>
       <c r="C63" t="n">
-        <v>25.83</v>
+        <v>32.17</v>
       </c>
       <c r="D63" t="n">
-        <v>2290.7890625</v>
+        <v>1843.8623046875</v>
       </c>
     </row>
     <row r="64">
@@ -1331,10 +1331,10 @@
         <v>200</v>
       </c>
       <c r="C64" t="n">
-        <v>20.99</v>
+        <v>30.87</v>
       </c>
       <c r="D64" t="n">
-        <v>1525.929443359375</v>
+        <v>2125.37255859375</v>
       </c>
     </row>
     <row r="65">
@@ -1345,10 +1345,10 @@
         <v>175</v>
       </c>
       <c r="C65" t="n">
-        <v>32.86</v>
+        <v>32.03</v>
       </c>
       <c r="D65" t="n">
-        <v>1796.506225585938</v>
+        <v>1836.123657226562</v>
       </c>
     </row>
     <row r="66">
@@ -1359,10 +1359,10 @@
         <v>150</v>
       </c>
       <c r="C66" t="n">
-        <v>24.78</v>
+        <v>17.4</v>
       </c>
       <c r="D66" t="n">
-        <v>1616.615478515625</v>
+        <v>1358.396484375</v>
       </c>
     </row>
     <row r="67">
@@ -1373,10 +1373,10 @@
         <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>25.46</v>
+        <v>31.67</v>
       </c>
       <c r="D67" t="n">
-        <v>1274.029907226562</v>
+        <v>1239.25</v>
       </c>
     </row>
     <row r="68">
@@ -1387,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>26.95</v>
+        <v>27.1</v>
       </c>
       <c r="D68" t="n">
-        <v>1259.407592773438</v>
+        <v>1139.921508789062</v>
       </c>
     </row>
     <row r="69">
@@ -1401,10 +1401,10 @@
         <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>23.27</v>
+        <v>29.41</v>
       </c>
       <c r="D69" t="n">
-        <v>962.6735229492188</v>
+        <v>961.8919677734375</v>
       </c>
     </row>
     <row r="70">
@@ -1415,10 +1415,10 @@
         <v>50</v>
       </c>
       <c r="C70" t="n">
-        <v>18.13</v>
+        <v>21.88</v>
       </c>
       <c r="D70" t="n">
-        <v>566.7857055664062</v>
+        <v>500.5919494628906</v>
       </c>
     </row>
     <row r="71">
@@ -1429,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>20.4</v>
+        <v>15.1</v>
       </c>
       <c r="D71" t="n">
-        <v>316.1241149902344</v>
+        <v>286.7571411132812</v>
       </c>
     </row>
     <row r="72">
@@ -1443,10 +1443,10 @@
         <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>28.72</v>
+        <v>28.86</v>
       </c>
       <c r="D72" t="n">
-        <v>2438.896728515625</v>
+        <v>2058.4296875</v>
       </c>
     </row>
     <row r="73">
@@ -1457,10 +1457,10 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>18.3</v>
+        <v>28.59</v>
       </c>
       <c r="D73" t="n">
-        <v>2052.71142578125</v>
+        <v>1814.618774414062</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>200</v>
       </c>
       <c r="C74" t="n">
-        <v>25.44</v>
+        <v>34.36</v>
       </c>
       <c r="D74" t="n">
-        <v>1896.239379882812</v>
+        <v>1984.750610351562</v>
       </c>
     </row>
     <row r="75">
@@ -1485,10 +1485,10 @@
         <v>175</v>
       </c>
       <c r="C75" t="n">
-        <v>23.21</v>
+        <v>31.66</v>
       </c>
       <c r="D75" t="n">
-        <v>1803.677368164062</v>
+        <v>2044.990600585938</v>
       </c>
     </row>
     <row r="76">
@@ -1499,10 +1499,10 @@
         <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>27.77</v>
+        <v>30.19</v>
       </c>
       <c r="D76" t="n">
-        <v>1673.8603515625</v>
+        <v>1501.461547851562</v>
       </c>
     </row>
     <row r="77">
@@ -1513,10 +1513,10 @@
         <v>125</v>
       </c>
       <c r="C77" t="n">
-        <v>26.94</v>
+        <v>21.71</v>
       </c>
       <c r="D77" t="n">
-        <v>1306.949584960938</v>
+        <v>1439.625610351562</v>
       </c>
     </row>
     <row r="78">
@@ -1527,10 +1527,10 @@
         <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>22.84</v>
+        <v>28.95</v>
       </c>
       <c r="D78" t="n">
-        <v>1219.828857421875</v>
+        <v>1194.894287109375</v>
       </c>
     </row>
     <row r="79">
@@ -1541,10 +1541,10 @@
         <v>75</v>
       </c>
       <c r="C79" t="n">
-        <v>26.58</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>972.9822387695312</v>
+        <v>968.3282470703125</v>
       </c>
     </row>
     <row r="80">
@@ -1555,10 +1555,10 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>18.41</v>
+        <v>16.94</v>
       </c>
       <c r="D80" t="n">
-        <v>598.7587280273438</v>
+        <v>647.6982421875</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,1690 @@
         <v>25</v>
       </c>
       <c r="C81" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="D81" t="n">
+        <v>297.5338134765625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16</v>
+      </c>
+      <c r="B82" t="n">
+        <v>250</v>
+      </c>
+      <c r="C82" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2357.750244140625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16</v>
+      </c>
+      <c r="B83" t="n">
+        <v>225</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2073.225341796875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16</v>
+      </c>
+      <c r="B84" t="n">
+        <v>200</v>
+      </c>
+      <c r="C84" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1970.062866210938</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16</v>
+      </c>
+      <c r="B85" t="n">
+        <v>175</v>
+      </c>
+      <c r="C85" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1752.451171875</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>16</v>
+      </c>
+      <c r="B86" t="n">
+        <v>150</v>
+      </c>
+      <c r="C86" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1542.49365234375</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>16</v>
+      </c>
+      <c r="B87" t="n">
+        <v>125</v>
+      </c>
+      <c r="C87" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1543.561645507812</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>16</v>
+      </c>
+      <c r="B88" t="n">
+        <v>100</v>
+      </c>
+      <c r="C88" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1145.0546875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>16</v>
+      </c>
+      <c r="B89" t="n">
+        <v>75</v>
+      </c>
+      <c r="C89" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="D89" t="n">
+        <v>857.3562622070312</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>16</v>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="D90" t="n">
+        <v>647.818603515625</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>16</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>327.6392211914062</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18</v>
+      </c>
+      <c r="B92" t="n">
+        <v>250</v>
+      </c>
+      <c r="C92" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2206.3681640625</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18</v>
+      </c>
+      <c r="B93" t="n">
+        <v>225</v>
+      </c>
+      <c r="C93" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1744.576782226562</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18</v>
+      </c>
+      <c r="B94" t="n">
+        <v>200</v>
+      </c>
+      <c r="C94" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2377.373291015625</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18</v>
+      </c>
+      <c r="B95" t="n">
+        <v>175</v>
+      </c>
+      <c r="C95" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1942.317626953125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>18</v>
+      </c>
+      <c r="B96" t="n">
+        <v>150</v>
+      </c>
+      <c r="C96" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1246.150634765625</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>18</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1468.178588867188</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>18</v>
+      </c>
+      <c r="B98" t="n">
+        <v>100</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1037.046630859375</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>18</v>
+      </c>
+      <c r="B99" t="n">
+        <v>75</v>
+      </c>
+      <c r="C99" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="D99" t="n">
+        <v>897.793701171875</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>18</v>
+      </c>
+      <c r="B100" t="n">
+        <v>50</v>
+      </c>
+      <c r="C100" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D100" t="n">
+        <v>637.3944702148438</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>18</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D101" t="n">
+        <v>298.8467712402344</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="n">
+        <v>250</v>
+      </c>
+      <c r="C102" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2444.950927734375</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20</v>
+      </c>
+      <c r="B103" t="n">
+        <v>225</v>
+      </c>
+      <c r="C103" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1920.284057617188</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20</v>
+      </c>
+      <c r="B104" t="n">
+        <v>200</v>
+      </c>
+      <c r="C104" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2093.616455078125</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20</v>
+      </c>
+      <c r="B105" t="n">
+        <v>175</v>
+      </c>
+      <c r="C105" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1852.086303710938</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20</v>
+      </c>
+      <c r="B106" t="n">
+        <v>150</v>
+      </c>
+      <c r="C106" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1446.830200195312</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20</v>
+      </c>
+      <c r="B107" t="n">
+        <v>125</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1181.832275390625</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20</v>
+      </c>
+      <c r="B108" t="n">
+        <v>100</v>
+      </c>
+      <c r="C108" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="D108" t="n">
+        <v>988.65576171875</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20</v>
+      </c>
+      <c r="B109" t="n">
+        <v>75</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="D109" t="n">
+        <v>868.1237182617188</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B110" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="D110" t="n">
+        <v>595.3353881835938</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="D111" t="n">
+        <v>279.8368530273438</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22</v>
+      </c>
+      <c r="B112" t="n">
+        <v>250</v>
+      </c>
+      <c r="C112" t="n">
+        <v>33.66</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2563.256103515625</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>22</v>
+      </c>
+      <c r="B113" t="n">
+        <v>225</v>
+      </c>
+      <c r="C113" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2032.835693359375</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>22</v>
+      </c>
+      <c r="B114" t="n">
+        <v>200</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2007.106689453125</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>22</v>
+      </c>
+      <c r="B115" t="n">
+        <v>175</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1903.580932617188</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>22</v>
+      </c>
+      <c r="B116" t="n">
+        <v>150</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1589.17626953125</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>22</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1337.54345703125</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>22</v>
+      </c>
+      <c r="B118" t="n">
+        <v>100</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1283.172119140625</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>22</v>
+      </c>
+      <c r="B119" t="n">
+        <v>75</v>
+      </c>
+      <c r="C119" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="D119" t="n">
+        <v>938.5714721679688</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>22</v>
+      </c>
+      <c r="B120" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="D120" t="n">
+        <v>568.40673828125</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>22</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="D121" t="n">
+        <v>297.453125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24</v>
+      </c>
+      <c r="B122" t="n">
+        <v>250</v>
+      </c>
+      <c r="C122" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2219.42626953125</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24</v>
+      </c>
+      <c r="B123" t="n">
+        <v>225</v>
+      </c>
+      <c r="C123" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2064.946533203125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24</v>
+      </c>
+      <c r="B124" t="n">
+        <v>200</v>
+      </c>
+      <c r="C124" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1610.527954101562</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24</v>
+      </c>
+      <c r="B125" t="n">
+        <v>175</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1594.510498046875</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>24</v>
+      </c>
+      <c r="B126" t="n">
+        <v>150</v>
+      </c>
+      <c r="C126" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1484.164306640625</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>24</v>
+      </c>
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1260.647338867188</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>24</v>
+      </c>
+      <c r="B128" t="n">
+        <v>100</v>
+      </c>
+      <c r="C128" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1057.244750976562</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>24</v>
+      </c>
+      <c r="B129" t="n">
+        <v>75</v>
+      </c>
+      <c r="C129" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="D129" t="n">
+        <v>911.5121459960938</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>24</v>
+      </c>
+      <c r="B130" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="D130" t="n">
+        <v>644.5504760742188</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>24</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="D131" t="n">
+        <v>290.3099975585938</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26</v>
+      </c>
+      <c r="B132" t="n">
+        <v>250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1919.843505859375</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" t="n">
+        <v>225</v>
+      </c>
+      <c r="C133" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1854.901123046875</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" t="n">
+        <v>200</v>
+      </c>
+      <c r="C134" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1616.076049804688</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26</v>
+      </c>
+      <c r="B135" t="n">
+        <v>175</v>
+      </c>
+      <c r="C135" t="n">
+        <v>24.97</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1418.330688476562</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>26</v>
+      </c>
+      <c r="B136" t="n">
+        <v>150</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1577.727783203125</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>26</v>
+      </c>
+      <c r="B137" t="n">
+        <v>125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1487.575561523438</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>26</v>
+      </c>
+      <c r="B138" t="n">
+        <v>100</v>
+      </c>
+      <c r="C138" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1334.372802734375</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>26</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D139" t="n">
+        <v>873.8509521484375</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>26</v>
+      </c>
+      <c r="B140" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25.19</v>
+      </c>
+      <c r="D140" t="n">
+        <v>622.208740234375</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>26</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="D141" t="n">
+        <v>306.4573364257812</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28</v>
+      </c>
+      <c r="B142" t="n">
+        <v>250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1919.947631835938</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28</v>
+      </c>
+      <c r="B143" t="n">
+        <v>225</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2326.425537109375</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>28</v>
+      </c>
+      <c r="B144" t="n">
+        <v>200</v>
+      </c>
+      <c r="C144" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1624.406005859375</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>28</v>
+      </c>
+      <c r="B145" t="n">
+        <v>175</v>
+      </c>
+      <c r="C145" t="n">
+        <v>32.16</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1626.185791015625</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>28</v>
+      </c>
+      <c r="B146" t="n">
+        <v>150</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1628.171142578125</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>28</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1503.512329101562</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>28</v>
+      </c>
+      <c r="B148" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1101.619873046875</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>28</v>
+      </c>
+      <c r="B149" t="n">
+        <v>75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D149" t="n">
+        <v>720.28271484375</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>50</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="D150" t="n">
+        <v>629.7528076171875</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>28</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25</v>
+      </c>
+      <c r="C151" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D151" t="n">
+        <v>320.8673400878906</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>30</v>
+      </c>
+      <c r="B152" t="n">
+        <v>250</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2610.13330078125</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>30</v>
+      </c>
+      <c r="B153" t="n">
+        <v>225</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2089.529052734375</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>30</v>
+      </c>
+      <c r="B154" t="n">
+        <v>200</v>
+      </c>
+      <c r="C154" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1345.1591796875</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>30</v>
+      </c>
+      <c r="B155" t="n">
+        <v>175</v>
+      </c>
+      <c r="C155" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1906.286010742188</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>30</v>
+      </c>
+      <c r="B156" t="n">
+        <v>150</v>
+      </c>
+      <c r="C156" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1687.984252929688</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>30</v>
+      </c>
+      <c r="B157" t="n">
+        <v>125</v>
+      </c>
+      <c r="C157" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1227.537963867188</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>30</v>
+      </c>
+      <c r="B158" t="n">
+        <v>100</v>
+      </c>
+      <c r="C158" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1146.945190429688</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>30</v>
+      </c>
+      <c r="B159" t="n">
+        <v>75</v>
+      </c>
+      <c r="C159" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D159" t="n">
+        <v>955.861572265625</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>30</v>
+      </c>
+      <c r="B160" t="n">
+        <v>50</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>647.4778442382812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>30</v>
+      </c>
+      <c r="B161" t="n">
+        <v>25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D161" t="n">
+        <v>320.9598083496094</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>35</v>
+      </c>
+      <c r="B162" t="n">
+        <v>250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1923.083129882812</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>35</v>
+      </c>
+      <c r="B163" t="n">
+        <v>225</v>
+      </c>
+      <c r="C163" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2354.726806640625</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>35</v>
+      </c>
+      <c r="B164" t="n">
+        <v>200</v>
+      </c>
+      <c r="C164" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2234.718505859375</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>35</v>
+      </c>
+      <c r="B165" t="n">
+        <v>175</v>
+      </c>
+      <c r="C165" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1594.879028320312</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>35</v>
+      </c>
+      <c r="B166" t="n">
+        <v>150</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1375.04541015625</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>35</v>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1514.405395507812</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>35</v>
+      </c>
+      <c r="B168" t="n">
+        <v>100</v>
+      </c>
+      <c r="C168" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1001.949279785156</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>35</v>
+      </c>
+      <c r="B169" t="n">
+        <v>75</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>843.1860961914062</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>35</v>
+      </c>
+      <c r="B170" t="n">
+        <v>50</v>
+      </c>
+      <c r="C170" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="D170" t="n">
+        <v>614.48388671875</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>35</v>
+      </c>
+      <c r="B171" t="n">
+        <v>25</v>
+      </c>
+      <c r="C171" t="n">
         <v>16.87</v>
       </c>
-      <c r="D81" t="n">
-        <v>297.5391235351562</v>
+      <c r="D171" t="n">
+        <v>311.5137329101562</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>40</v>
+      </c>
+      <c r="B172" t="n">
+        <v>250</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2056.067138671875</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>40</v>
+      </c>
+      <c r="B173" t="n">
+        <v>225</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2148.3740234375</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>40</v>
+      </c>
+      <c r="B174" t="n">
+        <v>200</v>
+      </c>
+      <c r="C174" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2023.789184570312</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>40</v>
+      </c>
+      <c r="B175" t="n">
+        <v>175</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1822.327026367188</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>40</v>
+      </c>
+      <c r="B176" t="n">
+        <v>150</v>
+      </c>
+      <c r="C176" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1691.888427734375</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>40</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1319.81689453125</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>40</v>
+      </c>
+      <c r="B178" t="n">
+        <v>100</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1330.964721679688</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>40</v>
+      </c>
+      <c r="B179" t="n">
+        <v>75</v>
+      </c>
+      <c r="C179" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="D179" t="n">
+        <v>980.90673828125</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>40</v>
+      </c>
+      <c r="B180" t="n">
+        <v>50</v>
+      </c>
+      <c r="C180" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="D180" t="n">
+        <v>568.0021362304688</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>40</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D181" t="n">
+        <v>309.9339294433594</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>45</v>
+      </c>
+      <c r="B182" t="n">
+        <v>250</v>
+      </c>
+      <c r="C182" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1540.439086914062</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>45</v>
+      </c>
+      <c r="B183" t="n">
+        <v>225</v>
+      </c>
+      <c r="C183" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2064.6826171875</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>45</v>
+      </c>
+      <c r="B184" t="n">
+        <v>200</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2086.41455078125</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>45</v>
+      </c>
+      <c r="B185" t="n">
+        <v>175</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1500.713256835938</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>45</v>
+      </c>
+      <c r="B186" t="n">
+        <v>150</v>
+      </c>
+      <c r="C186" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1758.831298828125</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>45</v>
+      </c>
+      <c r="B187" t="n">
+        <v>125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1409.480102539062</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>45</v>
+      </c>
+      <c r="B188" t="n">
+        <v>100</v>
+      </c>
+      <c r="C188" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1324.254272460938</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>45</v>
+      </c>
+      <c r="B189" t="n">
+        <v>75</v>
+      </c>
+      <c r="C189" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="D189" t="n">
+        <v>964.2426147460938</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>45</v>
+      </c>
+      <c r="B190" t="n">
+        <v>50</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="D190" t="n">
+        <v>657.5357666015625</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>45</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25</v>
+      </c>
+      <c r="C191" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D191" t="n">
+        <v>290.5443115234375</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>50</v>
+      </c>
+      <c r="B192" t="n">
+        <v>250</v>
+      </c>
+      <c r="C192" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2273.15771484375</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>50</v>
+      </c>
+      <c r="B193" t="n">
+        <v>225</v>
+      </c>
+      <c r="C193" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2384.10888671875</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>50</v>
+      </c>
+      <c r="B194" t="n">
+        <v>200</v>
+      </c>
+      <c r="C194" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1877.632568359375</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>50</v>
+      </c>
+      <c r="B195" t="n">
+        <v>175</v>
+      </c>
+      <c r="C195" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1986.780029296875</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>50</v>
+      </c>
+      <c r="B196" t="n">
+        <v>150</v>
+      </c>
+      <c r="C196" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1668.421142578125</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>50</v>
+      </c>
+      <c r="B197" t="n">
+        <v>125</v>
+      </c>
+      <c r="C197" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1543.559692382812</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>50</v>
+      </c>
+      <c r="B198" t="n">
+        <v>100</v>
+      </c>
+      <c r="C198" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1229.705200195312</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>50</v>
+      </c>
+      <c r="B199" t="n">
+        <v>75</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D199" t="n">
+        <v>962.6471557617188</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50</v>
+      </c>
+      <c r="B200" t="n">
+        <v>50</v>
+      </c>
+      <c r="C200" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D200" t="n">
+        <v>636.328125</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25</v>
+      </c>
+      <c r="C201" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="D201" t="n">
+        <v>314.8108825683594</v>
       </c>
     </row>
   </sheetData>
